--- a/files/LCI_CW.xlsx
+++ b/files/LCI_CW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\05_LCA_Repo\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\05_LCA\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3BDFD4-4569-48E3-BD44-E006BCE16F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0F1639-EAB1-4643-9CF7-98A28EB22230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3045" windowWidth="13980" windowHeight="13155" tabRatio="828" firstSheet="40" activeTab="48" xr2:uid="{C53D2317-A0AE-4D89-AE6C-E52C75B15043}"/>
+    <workbookView xWindow="30" yWindow="930" windowWidth="28770" windowHeight="15270" tabRatio="828" activeTab="1" xr2:uid="{C53D2317-A0AE-4D89-AE6C-E52C75B15043}"/>
   </bookViews>
   <sheets>
     <sheet name="Hypothesis" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5190" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5193" uniqueCount="417">
   <si>
     <t>skip</t>
   </si>
@@ -1104,9 +1104,6 @@
     <t>param_lifespan</t>
   </si>
   <si>
-    <t>param_shdg_device</t>
-  </si>
-  <si>
     <t>param_thermal_curtain</t>
   </si>
   <si>
@@ -1324,6 +1321,18 @@
   </si>
   <si>
     <t>market for used curtain wall, aluminium frame, low performance, for single glazing</t>
+  </si>
+  <si>
+    <t>param_ext_shdg_device</t>
+  </si>
+  <si>
+    <t>param_int_shdg_device</t>
+  </si>
+  <si>
+    <t>Is there an interior shading device?</t>
+  </si>
+  <si>
+    <t>param_ext_shdg_device + param_int_shdg_device</t>
   </si>
 </sst>
 </file>
@@ -2221,35 +2230,35 @@
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D36">
         <v>1500</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D37">
         <v>2700</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D38">
         <v>1500</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.25">
@@ -2354,7 +2363,7 @@
         <v>13</v>
       </c>
       <c r="F48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
@@ -2369,7 +2378,7 @@
         <v>103</v>
       </c>
       <c r="F49" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.25">
@@ -2386,7 +2395,7 @@
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D51" s="13">
         <f>100/1000000*D38</f>
@@ -2396,7 +2405,7 @@
         <v>13</v>
       </c>
       <c r="F51" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.25">
@@ -2435,7 +2444,7 @@
         <v>13</v>
       </c>
       <c r="F55" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.25">
@@ -2450,7 +2459,7 @@
         <v>13</v>
       </c>
       <c r="F56" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.25">
@@ -2492,7 +2501,7 @@
         <v>13</v>
       </c>
       <c r="F61" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.25">
@@ -2507,7 +2516,7 @@
         <v>103</v>
       </c>
       <c r="F62" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="63" spans="3:8" x14ac:dyDescent="0.25">
@@ -2524,7 +2533,7 @@
     </row>
     <row r="64" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D64" s="13">
         <f>100/1000000*D38</f>
@@ -2534,7 +2543,7 @@
         <v>13</v>
       </c>
       <c r="F64" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="66" spans="3:8" x14ac:dyDescent="0.25">
@@ -2573,7 +2582,7 @@
         <v>13</v>
       </c>
       <c r="F68" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="69" spans="3:8" x14ac:dyDescent="0.25">
@@ -2588,7 +2597,7 @@
         <v>13</v>
       </c>
       <c r="F69" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="72" spans="3:8" x14ac:dyDescent="0.25">
@@ -2627,7 +2636,7 @@
         <v>13</v>
       </c>
       <c r="F74" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="75" spans="3:8" x14ac:dyDescent="0.25">
@@ -2642,7 +2651,7 @@
         <v>13</v>
       </c>
       <c r="F75" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="78" spans="3:8" x14ac:dyDescent="0.25">
@@ -2681,7 +2690,7 @@
         <v>13</v>
       </c>
       <c r="F80" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="81" spans="3:6" x14ac:dyDescent="0.25">
@@ -2696,7 +2705,7 @@
         <v>13</v>
       </c>
       <c r="F81" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -6246,10 +6255,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F331A97-D360-4614-930F-5E821087FA83}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6414,7 +6423,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>340</v>
+        <v>413</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -6429,7 +6438,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>341</v>
+        <v>414</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -6438,13 +6447,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>263</v>
+        <v>415</v>
       </c>
       <c r="O15"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -6453,13 +6462,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O16"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -6468,13 +6477,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O17"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -6483,13 +6492,13 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O18"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -6498,13 +6507,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O19"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -6513,13 +6522,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="O20"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -6528,13 +6537,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="O21"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -6543,13 +6552,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O22"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -6558,13 +6567,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O23"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -6573,13 +6582,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="O24"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
@@ -6588,13 +6597,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O25"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
@@ -6603,13 +6612,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="O26"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
@@ -6618,13 +6627,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O27"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
@@ -6633,13 +6642,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>271</v>
+        <v>321</v>
       </c>
       <c r="O28"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
@@ -6648,237 +6657,205 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
+        <v>271</v>
+      </c>
+      <c r="O29"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>352</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="41">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
         <v>336</v>
       </c>
-      <c r="O29"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C30" s="41"/>
       <c r="O30"/>
     </row>
-    <row r="32" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C31" s="41"/>
+      <c r="O31"/>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B33" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="17"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" t="s">
-        <v>42</v>
-      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="17"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="17"/>
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="17"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="C36" s="4"/>
+      <c r="D36" s="17"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" t="s">
-        <v>48</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
+    <row r="41" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="36" t="s">
+    <row r="42" spans="1:15" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="37" t="s">
+      <c r="B42" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="37" t="s">
+      <c r="C42" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="38" t="s">
+      <c r="D42" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="38" t="s">
+      <c r="E42" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="F41" s="38" t="s">
+      <c r="F42" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="G41" s="38" t="s">
+      <c r="G42" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="H41" s="19" t="s">
+      <c r="H42" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="I41" s="19" t="s">
+      <c r="I42" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="J41" s="19" t="s">
+      <c r="J42" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="K41" s="19" t="s">
+      <c r="K42" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="L41" s="19" t="s">
+      <c r="L42" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="M41" s="19" t="s">
+      <c r="M42" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="N41" s="19" t="s">
+      <c r="N42" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="O41" s="20" t="s">
+      <c r="O42" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="32" t="s">
+    <row r="43" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B42" s="47">
+      <c r="B43" s="47">
         <f>Hypothesis!D61</f>
         <v>3.4749000000000008</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C43" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="D43" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="E42" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="F42" s="23" t="s">
+      <c r="E43" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F43" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="G42" s="23" t="s">
+      <c r="G43" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="H42" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="I42" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="J42" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="K42" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="L42" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="M42" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="N42" s="23" t="s">
+      <c r="H43" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="I43" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="J43" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="K43" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="L43" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="M43" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="N43" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="O42" s="32"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" s="46">
-        <f>B42*0.95</f>
-        <v>3.3011550000000005</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="I43" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J43" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="K43" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="L43" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="M43" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="N43" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="O43" s="11" t="s">
-        <v>94</v>
-      </c>
+      <c r="O43" s="32"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B44" s="46">
-        <v>0.95</v>
+        <f>B43*0.95</f>
+        <v>3.3011550000000005</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="D44" s="13" t="s">
         <v>63</v>
@@ -6911,7 +6888,7 @@
         <v>64</v>
       </c>
       <c r="N44" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O44" s="11" t="s">
         <v>94</v>
@@ -6919,13 +6896,13 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="B45" s="46">
-        <v>0.27</v>
+        <v>0.95</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D45" s="13" t="s">
         <v>63</v>
@@ -6934,7 +6911,7 @@
         <v>64</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="G45" s="13" t="s">
         <v>65</v>
@@ -6958,7 +6935,7 @@
         <v>64</v>
       </c>
       <c r="N45" s="13" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="O45" s="11" t="s">
         <v>94</v>
@@ -6966,13 +6943,13 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="B46" s="46">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>63</v>
@@ -6981,7 +6958,7 @@
         <v>64</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="G46" s="13" t="s">
         <v>65</v>
@@ -7005,7 +6982,7 @@
         <v>64</v>
       </c>
       <c r="N46" s="13" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="O46" s="11" t="s">
         <v>94</v>
@@ -7013,10 +6990,9 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B47" s="46">
-        <f>B46</f>
         <v>0.03</v>
       </c>
       <c r="C47" s="11" t="s">
@@ -7053,7 +7029,7 @@
         <v>64</v>
       </c>
       <c r="N47" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O47" s="11" t="s">
         <v>94</v>
@@ -7061,13 +7037,14 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>101</v>
-      </c>
-      <c r="B48" s="48">
-        <v>2.3199999999999999E-8</v>
+        <v>99</v>
+      </c>
+      <c r="B48" s="46">
+        <f>B47</f>
+        <v>0.03</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="D48" s="13" t="s">
         <v>63</v>
@@ -7100,7 +7077,7 @@
         <v>64</v>
       </c>
       <c r="N48" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O48" s="11" t="s">
         <v>94</v>
@@ -7108,139 +7085,186 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="48">
+        <v>2.3199999999999999E-8</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J49" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="K49" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="L49" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M49" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="N49" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="O49" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="48">
+      <c r="B50" s="48">
         <f>Hypothesis!D49</f>
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C50" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D50" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E49" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F49" s="13" t="s">
+      <c r="E50" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F50" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G49" s="13" t="s">
+      <c r="G50" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="H49" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="I49" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J49" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="K49" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="L49" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="M49" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="N49" s="13" t="s">
+      <c r="H50" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J50" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="K50" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="L50" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M50" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="N50" s="13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="B50" s="46">
+    <row r="51" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="43" t="s">
+        <v>360</v>
+      </c>
+      <c r="B51" s="46">
         <f>Hypothesis!D64</f>
         <v>0.15</v>
       </c>
-      <c r="C50" s="44" t="s">
+      <c r="C51" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D50" s="35" t="s">
+      <c r="D51" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="E50" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="F50" s="35" t="s">
+      <c r="E51" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F51" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="G50" s="35" t="s">
+      <c r="G51" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H50" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="I50" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="J50" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="K50" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="L50" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="M50" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="N50" s="35" t="s">
-        <v>362</v>
-      </c>
-      <c r="O50" s="45"/>
-    </row>
-    <row r="51" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="18" t="s">
+      <c r="H51" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="I51" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="J51" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="K51" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="L51" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="M51" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="N51" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="O51" s="45"/>
+    </row>
+    <row r="52" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B51" s="47">
+      <c r="B52" s="47">
         <v>1</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="C52" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="23" t="s">
+      <c r="D52" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="E51" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="F51" s="23" t="s">
+      <c r="E52" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="G51" s="23" t="s">
+      <c r="G52" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="H51" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="I51" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="J51" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="K51" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="L51" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="M51" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="N51" s="23" t="s">
+      <c r="H52" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="I52" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="J52" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="K52" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="L52" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="M52" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="N52" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="O51" s="24"/>
+      <c r="O52" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11790,7 +11814,7 @@
     </row>
     <row r="14" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B14" s="42">
         <f>B13</f>
@@ -11830,7 +11854,7 @@
         <v>64</v>
       </c>
       <c r="N14" s="23" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -13882,7 +13906,7 @@
     </row>
     <row r="15" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B15" s="42">
         <f>B14</f>
@@ -13922,7 +13946,7 @@
         <v>64</v>
       </c>
       <c r="N15" s="23" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -16544,7 +16568,7 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16690,7 +16714,7 @@
     </row>
     <row r="12" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B12" s="40">
         <v>-1</v>
@@ -16700,7 +16724,7 @@
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>64</v>
@@ -16730,7 +16754,7 @@
         <v>64</v>
       </c>
       <c r="O12" s="23" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -16744,7 +16768,7 @@
         <v>72</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>340</v>
+        <v>416</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>71</v>
@@ -16792,7 +16816,7 @@
         <v>72</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>71</v>
@@ -16840,7 +16864,7 @@
         <v>72</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>71</v>
@@ -16887,7 +16911,7 @@
         <v>72</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>71</v>
@@ -16934,7 +16958,7 @@
         <v>72</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>71</v>
@@ -16981,7 +17005,7 @@
         <v>72</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>71</v>
@@ -17028,7 +17052,7 @@
         <v>72</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>71</v>
@@ -17075,7 +17099,7 @@
         <v>72</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E20" s="23" t="s">
         <v>71</v>
@@ -17122,7 +17146,7 @@
         <v>72</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>71</v>
@@ -17169,7 +17193,7 @@
         <v>72</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E22" s="23" t="s">
         <v>71</v>
@@ -17216,7 +17240,7 @@
         <v>72</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E23" s="23" t="s">
         <v>71</v>
@@ -17263,7 +17287,7 @@
         <v>72</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E24" s="23" t="s">
         <v>71</v>
@@ -17310,7 +17334,7 @@
         <v>72</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E25" s="23" t="s">
         <v>71</v>
@@ -17357,7 +17381,7 @@
         <v>72</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E26" s="23" t="s">
         <v>71</v>
@@ -17404,7 +17428,7 @@
         <v>72</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E27" s="23" t="s">
         <v>71</v>
@@ -17451,7 +17475,7 @@
         <v>72</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E28" s="23" t="s">
         <v>71</v>
@@ -17498,7 +17522,7 @@
         <v>62</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>63</v>
@@ -17545,7 +17569,7 @@
         <v>247</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>63</v>
@@ -17669,7 +17693,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -17685,7 +17709,7 @@
         <v>43</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -17783,7 +17807,7 @@
     </row>
     <row r="12" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B12" s="40">
         <v>1</v>
@@ -17823,12 +17847,12 @@
         <v>64</v>
       </c>
       <c r="O12" s="23" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B13" s="40">
         <v>-1</v>
@@ -17838,7 +17862,7 @@
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>64</v>
@@ -17868,7 +17892,7 @@
         <v>64</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -17881,7 +17905,7 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18036,7 +18060,7 @@
         <v>72</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>340</v>
+        <v>416</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>71</v>
@@ -18084,7 +18108,7 @@
         <v>72</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>71</v>
@@ -18132,7 +18156,7 @@
         <v>72</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>71</v>
@@ -18179,7 +18203,7 @@
         <v>72</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>71</v>
@@ -18226,7 +18250,7 @@
         <v>72</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>71</v>
@@ -18273,7 +18297,7 @@
         <v>72</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>71</v>
@@ -18320,7 +18344,7 @@
         <v>72</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>71</v>
@@ -18367,7 +18391,7 @@
         <v>72</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>71</v>
@@ -18414,7 +18438,7 @@
         <v>72</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E20" s="23" t="s">
         <v>71</v>
@@ -18461,7 +18485,7 @@
         <v>72</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>71</v>
@@ -18508,7 +18532,7 @@
         <v>72</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E22" s="23" t="s">
         <v>71</v>
@@ -18555,7 +18579,7 @@
         <v>72</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E23" s="23" t="s">
         <v>71</v>
@@ -18602,7 +18626,7 @@
         <v>72</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E24" s="23" t="s">
         <v>71</v>
@@ -18649,7 +18673,7 @@
         <v>72</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E25" s="23" t="s">
         <v>71</v>
@@ -18696,7 +18720,7 @@
         <v>72</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E26" s="23" t="s">
         <v>71</v>
@@ -18743,7 +18767,7 @@
         <v>72</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E27" s="23" t="s">
         <v>71</v>
@@ -18865,7 +18889,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -18881,7 +18905,7 @@
         <v>43</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -19019,12 +19043,12 @@
         <v>108</v>
       </c>
       <c r="O12" s="45" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B13" s="46">
         <f>Hypothesis!D38*(Hypothesis!D32*2+Hypothesis!D33*2)*100/1000000/Hypothesis!D31</f>
@@ -19064,15 +19088,15 @@
         <v>64</v>
       </c>
       <c r="N13" s="35" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O13" s="45" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B14" s="46">
         <f>-B12-B13</f>
@@ -19112,15 +19136,15 @@
         <v>64</v>
       </c>
       <c r="N14" s="35" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O14" s="45" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B15" s="40">
         <v>1</v>
@@ -19159,7 +19183,7 @@
         <v>64</v>
       </c>
       <c r="N15" s="23" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O15" s="24"/>
     </row>
@@ -19329,7 +19353,7 @@
         <v>62</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>63</v>
@@ -19376,7 +19400,7 @@
         <v>247</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>63</v>
@@ -19467,7 +19491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28F3D49-74C2-4BFC-A6B6-5745C01BC058}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -19500,7 +19524,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -19516,7 +19540,7 @@
         <v>43</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -19614,7 +19638,7 @@
     </row>
     <row r="12" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B12" s="40">
         <v>0</v>
@@ -19623,7 +19647,7 @@
         <v>72</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>71</v>
@@ -19661,7 +19685,7 @@
     </row>
     <row r="13" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B13" s="40">
         <v>0</v>
@@ -19670,7 +19694,7 @@
         <v>72</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>71</v>
@@ -19708,7 +19732,7 @@
     </row>
     <row r="14" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B14" s="40">
         <v>0</v>
@@ -19717,7 +19741,7 @@
         <v>72</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>71</v>
@@ -19755,7 +19779,7 @@
     </row>
     <row r="15" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B15" s="40">
         <v>0</v>
@@ -19764,7 +19788,7 @@
         <v>72</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>71</v>
@@ -19802,7 +19826,7 @@
     </row>
     <row r="16" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B16" s="40">
         <v>0</v>
@@ -19811,7 +19835,7 @@
         <v>72</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>71</v>
@@ -19849,7 +19873,7 @@
     </row>
     <row r="17" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B17" s="40">
         <v>0</v>
@@ -19858,7 +19882,7 @@
         <v>72</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>71</v>
@@ -19896,7 +19920,7 @@
     </row>
     <row r="18" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B18" s="40">
         <v>0</v>
@@ -19905,7 +19929,7 @@
         <v>72</v>
       </c>
       <c r="D18" s="49" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>71</v>
@@ -19943,7 +19967,7 @@
     </row>
     <row r="19" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B19" s="40">
         <v>0</v>
@@ -19952,7 +19976,7 @@
         <v>72</v>
       </c>
       <c r="D19" s="49" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>71</v>
@@ -19990,7 +20014,7 @@
     </row>
     <row r="20" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B20" s="40">
         <v>0</v>
@@ -19999,7 +20023,7 @@
         <v>72</v>
       </c>
       <c r="D20" s="49" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E20" s="23" t="s">
         <v>71</v>
@@ -20037,7 +20061,7 @@
     </row>
     <row r="21" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B21" s="40">
         <v>0</v>
@@ -20046,7 +20070,7 @@
         <v>72</v>
       </c>
       <c r="D21" s="49" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>71</v>
@@ -20084,7 +20108,7 @@
     </row>
     <row r="22" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B22" s="40">
         <v>0</v>
@@ -20093,7 +20117,7 @@
         <v>72</v>
       </c>
       <c r="D22" s="49" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E22" s="23" t="s">
         <v>71</v>
@@ -20131,7 +20155,7 @@
     </row>
     <row r="23" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B23" s="40">
         <v>0</v>
@@ -20140,7 +20164,7 @@
         <v>72</v>
       </c>
       <c r="D23" s="49" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E23" s="23" t="s">
         <v>71</v>
@@ -20178,7 +20202,7 @@
     </row>
     <row r="24" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B24" s="40">
         <v>0</v>
@@ -20187,7 +20211,7 @@
         <v>72</v>
       </c>
       <c r="D24" s="49" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E24" s="23" t="s">
         <v>71</v>
@@ -20225,7 +20249,7 @@
     </row>
     <row r="25" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B25" s="40">
         <v>0</v>
@@ -20234,7 +20258,7 @@
         <v>72</v>
       </c>
       <c r="D25" s="49" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E25" s="23" t="s">
         <v>71</v>
@@ -20272,7 +20296,7 @@
     </row>
     <row r="26" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B26" s="40">
         <v>1</v>
@@ -20312,7 +20336,7 @@
         <v>64</v>
       </c>
       <c r="O26" s="23" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="P26" s="24"/>
     </row>
@@ -21141,7 +21165,7 @@
     </row>
     <row r="20" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B20" s="46">
         <f>Hypothesis!D51</f>
@@ -21181,7 +21205,7 @@
         <v>64</v>
       </c>
       <c r="N20" s="35" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O20" s="45"/>
     </row>

--- a/files/LCI_CW.xlsx
+++ b/files/LCI_CW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\05_LCA\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0F1639-EAB1-4643-9CF7-98A28EB22230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB110D6E-11B7-42DA-8A14-CB23CF9A068A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="930" windowWidth="28770" windowHeight="15270" tabRatio="828" activeTab="1" xr2:uid="{C53D2317-A0AE-4D89-AE6C-E52C75B15043}"/>
+    <workbookView xWindow="30" yWindow="930" windowWidth="28770" windowHeight="15270" tabRatio="828" firstSheet="45" activeTab="48" xr2:uid="{C53D2317-A0AE-4D89-AE6C-E52C75B15043}"/>
   </bookViews>
   <sheets>
     <sheet name="Hypothesis" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5193" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5207" uniqueCount="428">
   <si>
     <t>skip</t>
   </si>
@@ -1236,9 +1236,6 @@
     <t>market for used curtain wall, aluminium frame, low performance, for double glazing</t>
   </si>
   <si>
-    <t>exldb_cw_EoL</t>
-  </si>
-  <si>
     <t>BE_market_eol_cw_lowperf_dg</t>
   </si>
   <si>
@@ -1333,6 +1330,42 @@
   </si>
   <si>
     <t>param_ext_shdg_device + param_int_shdg_device</t>
+  </si>
+  <si>
+    <t>be_market_eol_cw_lowperf_sg</t>
+  </si>
+  <si>
+    <t>be_market_eol_cw_lowperf_dg</t>
+  </si>
+  <si>
+    <t>be_market_eol_cw_highperf_dg</t>
+  </si>
+  <si>
+    <t>be_market_eol_cw_highperf_tg</t>
+  </si>
+  <si>
+    <t>be_market_eol_ccf</t>
+  </si>
+  <si>
+    <t>be_market_eol_cw_vacuum</t>
+  </si>
+  <si>
+    <t>be_market_eol_cw_smart</t>
+  </si>
+  <si>
+    <t>be_market_eol_dsf</t>
+  </si>
+  <si>
+    <t>exldb_cw_eol</t>
+  </si>
+  <si>
+    <t>market for used screen, metalised blind fabric</t>
+  </si>
+  <si>
+    <t>-(param_int_shdg_device + param_ext_shdg_device)</t>
+  </si>
+  <si>
+    <t>be_market_eol_screen</t>
   </si>
 </sst>
 </file>
@@ -4008,11 +4041,13 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="24.140625" customWidth="1"/>
@@ -6257,8 +6292,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6423,7 +6458,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -6438,7 +6473,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -6447,7 +6482,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O15"/>
     </row>
@@ -14959,7 +14994,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15691,7 +15726,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16568,7 +16603,7 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16724,7 +16759,7 @@
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="23" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>64</v>
@@ -16754,7 +16789,7 @@
         <v>64</v>
       </c>
       <c r="O12" s="23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -16768,7 +16803,7 @@
         <v>72</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>71</v>
@@ -17661,7 +17696,7 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17693,7 +17728,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -17709,7 +17744,7 @@
         <v>43</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -17807,7 +17842,7 @@
     </row>
     <row r="12" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B12" s="40">
         <v>1</v>
@@ -17847,7 +17882,7 @@
         <v>64</v>
       </c>
       <c r="O12" s="23" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -17862,7 +17897,7 @@
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="23" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>64</v>
@@ -17892,7 +17927,7 @@
         <v>64</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -18060,7 +18095,7 @@
         <v>72</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>71</v>
@@ -19489,15 +19524,15 @@
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28F3D49-74C2-4BFC-A6B6-5745C01BC058}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.140625" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
@@ -19524,7 +19559,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -19540,7 +19575,7 @@
         <v>43</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -19638,7 +19673,7 @@
     </row>
     <row r="12" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B12" s="40">
         <v>0</v>
@@ -19647,10 +19682,10 @@
         <v>72</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>71</v>
+        <v>424</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>64</v>
@@ -19680,12 +19715,12 @@
         <v>64</v>
       </c>
       <c r="O12" s="23" t="s">
-        <v>191</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B13" s="40">
         <v>0</v>
@@ -19694,10 +19729,10 @@
         <v>72</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>71</v>
+        <v>424</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>64</v>
@@ -19727,7 +19762,7 @@
         <v>64</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>198</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -19741,10 +19776,10 @@
         <v>72</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>71</v>
+        <v>424</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>64</v>
@@ -19774,12 +19809,12 @@
         <v>64</v>
       </c>
       <c r="O14" s="23" t="s">
-        <v>203</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B15" s="40">
         <v>0</v>
@@ -19788,10 +19823,10 @@
         <v>72</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>71</v>
+        <v>424</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>64</v>
@@ -19821,12 +19856,12 @@
         <v>64</v>
       </c>
       <c r="O15" s="23" t="s">
-        <v>208</v>
+        <v>418</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B16" s="40">
         <v>0</v>
@@ -19835,10 +19870,10 @@
         <v>72</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>71</v>
+        <v>424</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>64</v>
@@ -19868,12 +19903,12 @@
         <v>64</v>
       </c>
       <c r="O16" s="23" t="s">
-        <v>288</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B17" s="40">
         <v>0</v>
@@ -19882,10 +19917,10 @@
         <v>72</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>71</v>
+        <v>424</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>64</v>
@@ -19915,12 +19950,12 @@
         <v>64</v>
       </c>
       <c r="O17" s="23" t="s">
-        <v>214</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B18" s="40">
         <v>0</v>
@@ -19929,10 +19964,10 @@
         <v>72</v>
       </c>
       <c r="D18" s="49" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>71</v>
+        <v>424</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>64</v>
@@ -19962,12 +19997,12 @@
         <v>64</v>
       </c>
       <c r="O18" s="23" t="s">
-        <v>222</v>
+        <v>419</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B19" s="40">
         <v>0</v>
@@ -19976,10 +20011,10 @@
         <v>72</v>
       </c>
       <c r="D19" s="49" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>71</v>
+        <v>424</v>
       </c>
       <c r="F19" s="23" t="s">
         <v>64</v>
@@ -20009,12 +20044,12 @@
         <v>64</v>
       </c>
       <c r="O19" s="23" t="s">
-        <v>225</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B20" s="40">
         <v>0</v>
@@ -20023,10 +20058,10 @@
         <v>72</v>
       </c>
       <c r="D20" s="49" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>71</v>
+        <v>424</v>
       </c>
       <c r="F20" s="23" t="s">
         <v>64</v>
@@ -20056,12 +20091,12 @@
         <v>64</v>
       </c>
       <c r="O20" s="23" t="s">
-        <v>294</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B21" s="40">
         <v>0</v>
@@ -20070,10 +20105,10 @@
         <v>72</v>
       </c>
       <c r="D21" s="49" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>71</v>
+        <v>424</v>
       </c>
       <c r="F21" s="23" t="s">
         <v>64</v>
@@ -20103,12 +20138,12 @@
         <v>64</v>
       </c>
       <c r="O21" s="23" t="s">
-        <v>304</v>
+        <v>419</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B22" s="40">
         <v>0</v>
@@ -20117,10 +20152,10 @@
         <v>72</v>
       </c>
       <c r="D22" s="49" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>71</v>
+        <v>424</v>
       </c>
       <c r="F22" s="23" t="s">
         <v>64</v>
@@ -20150,12 +20185,12 @@
         <v>64</v>
       </c>
       <c r="O22" s="23" t="s">
-        <v>317</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B23" s="40">
         <v>0</v>
@@ -20164,10 +20199,10 @@
         <v>72</v>
       </c>
       <c r="D23" s="49" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>71</v>
+        <v>424</v>
       </c>
       <c r="F23" s="23" t="s">
         <v>64</v>
@@ -20197,12 +20232,12 @@
         <v>64</v>
       </c>
       <c r="O23" s="23" t="s">
-        <v>327</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B24" s="40">
         <v>0</v>
@@ -20211,10 +20246,10 @@
         <v>72</v>
       </c>
       <c r="D24" s="49" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>71</v>
+        <v>424</v>
       </c>
       <c r="F24" s="23" t="s">
         <v>64</v>
@@ -20244,12 +20279,12 @@
         <v>64</v>
       </c>
       <c r="O24" s="23" t="s">
-        <v>232</v>
+        <v>422</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B25" s="40">
         <v>0</v>
@@ -20258,10 +20293,10 @@
         <v>72</v>
       </c>
       <c r="D25" s="49" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>71</v>
+        <v>424</v>
       </c>
       <c r="F25" s="23" t="s">
         <v>64</v>
@@ -20291,22 +20326,24 @@
         <v>64</v>
       </c>
       <c r="O25" s="23" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="B26" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="32"/>
+      <c r="D26" s="49" t="s">
+        <v>426</v>
+      </c>
       <c r="E26" s="23" t="s">
-        <v>71</v>
+        <v>424</v>
       </c>
       <c r="F26" s="23" t="s">
         <v>64</v>
@@ -20315,30 +20352,75 @@
         <v>45</v>
       </c>
       <c r="H26" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="J26" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="K26" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="L26" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="M26" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="N26" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="O26" s="23" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="B27" s="40">
+        <v>1</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="32"/>
+      <c r="E27" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="I26" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="J26" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="K26" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="L26" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="M26" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="N26" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="O26" s="23" t="s">
-        <v>407</v>
-      </c>
-      <c r="P26" s="24"/>
+      <c r="I27" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="J27" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="L27" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="M27" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="N27" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="O27" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="P27" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
